--- a/190428_RobotContest/参赛名单.xlsx
+++ b/190428_RobotContest/参赛名单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\190428_RobotContest\190428_RobotContest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D979DC7-9DF6-44CA-A3DA-6E31D9ACD60A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="31704" yWindow="5148" windowWidth="15672" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>参赛序号</t>
   </si>
@@ -368,20 +374,22 @@
   </si>
   <si>
     <t>C51</t>
+  </si>
+  <si>
+    <t>00:00:001</t>
+  </si>
+  <si>
+    <t>00:00:002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,345 +398,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -736,251 +421,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,61 +441,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1310,36 +709,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="21.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
-    <col min="9" max="11" width="19.2222222222222" customWidth="1"/>
-    <col min="12" max="12" width="13.5555555555556" customWidth="1"/>
-    <col min="13" max="14" width="14.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="22.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="14.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1389,16 +788,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>5.6</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +844,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1415,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +861,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +870,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +879,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1451,7 +888,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1467,7 +904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1475,7 +912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1483,7 +920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1491,7 +928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1499,7 +936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1507,7 +944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1515,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1531,7 +968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1539,7 +976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1547,7 +984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1555,7 +992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1563,7 +1000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1571,7 +1008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1579,7 +1016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1587,7 +1024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1595,7 +1032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1611,7 +1048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1619,7 +1056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1627,7 +1064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1635,7 +1072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1643,7 +1080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1651,7 +1088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1659,7 +1096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -1667,7 +1104,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -1675,7 +1112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1683,7 +1120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1691,7 +1128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -1699,7 +1136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -1707,7 +1144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1715,7 +1152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -1723,7 +1160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -1731,7 +1168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1739,7 +1176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1747,7 +1184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -1755,7 +1192,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -1763,7 +1200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -1771,7 +1208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -1779,7 +1216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -1787,7 +1224,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -1795,7 +1232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -1804,8 +1241,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/190428_RobotContest/参赛名单.xlsx
+++ b/190428_RobotContest/参赛名单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\190428_RobotContest\190428_RobotContest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D979DC7-9DF6-44CA-A3DA-6E31D9ACD60A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312C850-10A5-476C-B002-2FFADF8E72D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31704" yWindow="5148" windowWidth="15672" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2628" yWindow="1608" windowWidth="15672" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,10 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="O2">
+        <v>104.401</v>
       </c>
       <c r="P2">
         <v>0</v>

--- a/190428_RobotContest/参赛名单.xlsx
+++ b/190428_RobotContest/参赛名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\190428_RobotContest\190428_RobotContest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312C850-10A5-476C-B002-2FFADF8E72D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D1A8B-B905-47F8-8F32-02A5914C74B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="1608" windowWidth="15672" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24372" yWindow="1656" windowWidth="18984" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>参赛序号</t>
   </si>
@@ -28,54 +28,54 @@
     <t>队长名</t>
   </si>
   <si>
+    <t>总成绩</t>
+  </si>
+  <si>
+    <t>小车运行时间</t>
+  </si>
+  <si>
+    <t>外观分</t>
+  </si>
+  <si>
+    <t>外观减去时间</t>
+  </si>
+  <si>
+    <t>弯道个数</t>
+  </si>
+  <si>
+    <t>未绕过的障碍个数</t>
+  </si>
+  <si>
+    <t>碰撞个数</t>
+  </si>
+  <si>
+    <t>人员干涉次数</t>
+  </si>
+  <si>
+    <t>是否自动停下</t>
+  </si>
+  <si>
+    <t>是否下滑</t>
+  </si>
+  <si>
+    <t>加罚总时间</t>
+  </si>
+  <si>
+    <t>最终成绩</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>第一次成绩</t>
   </si>
   <si>
     <t>第二次成绩</t>
   </si>
   <si>
-    <t>最佳成绩</t>
-  </si>
-  <si>
-    <t>外观分</t>
-  </si>
-  <si>
-    <t>外观减去时间</t>
-  </si>
-  <si>
-    <t>弯道个数</t>
-  </si>
-  <si>
-    <t>未绕过的障碍个数</t>
-  </si>
-  <si>
-    <t>碰撞个数</t>
-  </si>
-  <si>
-    <t>人员干涉次数</t>
-  </si>
-  <si>
-    <t>是否自动停下</t>
-  </si>
-  <si>
-    <t>是否下滑</t>
-  </si>
-  <si>
-    <t>加罚总时间</t>
-  </si>
-  <si>
-    <t>最终成绩（单位为s）</t>
-  </si>
-  <si>
-    <t>是否重录扣分项</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -374,12 +374,6 @@
   </si>
   <si>
     <t>C51</t>
-  </si>
-  <si>
-    <t>00:00:001</t>
-  </si>
-  <si>
-    <t>00:00:002</t>
   </si>
 </sst>
 </file>
@@ -400,7 +394,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -427,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +431,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,27 +711,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="11" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -745,64 +744,57 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
+      <c r="D2" s="2"/>
+      <c r="E2">
+        <v>1.22222222222222E-2</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -829,417 +821,473 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O2">
-        <v>104.401</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
+        <v>126.622</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="2"/>
+      <c r="E3">
+        <v>1.2222222222222223E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="E5">
+        <v>1.2210648148148146E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>117</v>
       </c>
     </row>

--- a/190428_RobotContest/参赛名单.xlsx
+++ b/190428_RobotContest/参赛名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\190428_RobotContest\190428_RobotContest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D1A8B-B905-47F8-8F32-02A5914C74B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C42C36-AAFF-4157-816F-CE9B2A81BF23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24372" yWindow="1656" windowWidth="18984" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,10 +430,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -792,9 +792,8 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2">
-        <v>1.22222222222222E-2</v>
+      <c r="D2" s="3">
+        <v>114.4</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -824,7 +823,7 @@
         <v>120</v>
       </c>
       <c r="O2">
-        <v>126.622</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -833,9 +832,6 @@
         <v>17</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3">
-        <v>1.2222222222222223E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -848,12 +844,6 @@
         <v>16</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4">
-        <v>1.2222222222222223E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -861,12 +851,6 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5">
-        <v>1.2210648148148146E-2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -877,9 +861,6 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -895,18 +876,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.2222222222222223E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.2222222222222223E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.2222222222222223E-2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -922,378 +892,396 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/190428_RobotContest/参赛名单.xlsx
+++ b/190428_RobotContest/参赛名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\190428_RobotContest\190428_RobotContest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C42C36-AAFF-4157-816F-CE9B2A81BF23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A70D9-EEFF-4F3C-BB2A-698B5B0048E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24372" yWindow="1656" windowWidth="18984" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -424,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -714,7 +714,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -795,6 +795,9 @@
       <c r="D2" s="3">
         <v>114.4</v>
       </c>
+      <c r="E2">
+        <v>1.2210648148148101E-2</v>
+      </c>
       <c r="F2">
         <v>25</v>
       </c>
@@ -832,6 +835,15 @@
         <v>17</v>
       </c>
       <c r="D3" s="2"/>
+      <c r="E3">
+        <v>1.2210648148148146E-2</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
